--- a/machinelearning/fertility/fertility.xlsx
+++ b/machinelearning/fertility/fertility.xlsx
@@ -391,7 +391,7 @@
   <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L1048576"/>
+      <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -408,19 +408,19 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>-0.33</v>
+        <v>-1</v>
       </c>
       <c r="B1">
-        <v>0.72</v>
+        <v>0.67</v>
       </c>
       <c r="C1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F1">
         <v>0</v>
@@ -429,25 +429,25 @@
         <v>0.6</v>
       </c>
       <c r="H1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1">
-        <v>0.19</v>
+        <v>0.5</v>
       </c>
       <c r="J1">
         <f>IF(K1="N",0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>0.57999999999999996</v>
+        <v>0.67</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -456,10 +456,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>0.8</v>
@@ -468,14 +468,14 @@
         <v>1</v>
       </c>
       <c r="I2">
-        <v>0.5</v>
+        <v>0.38</v>
       </c>
       <c r="J2">
-        <f t="shared" ref="J2:K65" si="0">IF(K2="N",0,1)</f>
-        <v>0</v>
+        <f>IF(K2="N",0,1)</f>
+        <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -489,10 +489,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>-1</v>
@@ -501,13 +501,13 @@
         <v>0.8</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I3">
-        <v>0.88</v>
+        <v>0.5</v>
       </c>
       <c r="J3">
-        <f t="shared" si="0"/>
+        <f>IF(K3="N",0,1)</f>
         <v>0</v>
       </c>
       <c r="K3" t="s">
@@ -519,7 +519,7 @@
         <v>-0.33</v>
       </c>
       <c r="B4">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -528,22 +528,22 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I4">
-        <v>0.31</v>
+        <v>0.25</v>
       </c>
       <c r="J4">
-        <f t="shared" si="0"/>
+        <f>IF(K4="N",0,1)</f>
         <v>0</v>
       </c>
       <c r="K4" t="s">
@@ -555,31 +555,31 @@
         <v>-0.33</v>
       </c>
       <c r="B5">
-        <v>0.81</v>
+        <v>0.5</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I5">
-        <v>0.38</v>
+        <v>0.47</v>
       </c>
       <c r="J5">
-        <f t="shared" si="0"/>
+        <f>IF(K5="N",0,1)</f>
         <v>0</v>
       </c>
       <c r="K5" t="s">
@@ -588,13 +588,13 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1</v>
+        <v>-0.33</v>
       </c>
       <c r="B6">
-        <v>0.56000000000000005</v>
+        <v>0.92</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -606,16 +606,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.19</v>
       </c>
       <c r="J6">
-        <f t="shared" si="0"/>
+        <f>IF(K6="N",0,1)</f>
         <v>0</v>
       </c>
       <c r="K6" t="s">
@@ -624,10 +624,10 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B7">
-        <v>0.56000000000000005</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -636,22 +636,22 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G7">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <v>0.5</v>
       </c>
       <c r="J7">
-        <f t="shared" si="0"/>
+        <f>IF(K7="N",0,1)</f>
         <v>0</v>
       </c>
       <c r="K7" t="s">
@@ -663,7 +663,7 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>0.78</v>
+        <v>0.81</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -675,55 +675,55 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H8">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>0.38</v>
+        <v>0.5</v>
       </c>
       <c r="J8">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>IF(K8="N",0,1)</f>
+        <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B9">
-        <v>0.56000000000000005</v>
+        <v>0.61</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H9">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.63</v>
+        <v>0.5</v>
       </c>
       <c r="J9">
-        <f t="shared" si="0"/>
+        <f>IF(K9="N",0,1)</f>
         <v>0</v>
       </c>
       <c r="K9" t="s">
@@ -732,43 +732,43 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>-1</v>
+        <v>-0.33</v>
       </c>
       <c r="B10">
-        <v>0.69</v>
+        <v>0.78</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>0.19</v>
+        <v>0.06</v>
       </c>
       <c r="J10">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>IF(K10="N",0,1)</f>
+        <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B11">
         <v>0.67</v>
@@ -780,22 +780,22 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H11">
         <v>-1</v>
       </c>
       <c r="I11">
-        <v>0.25</v>
+        <v>0.31</v>
       </c>
       <c r="J11">
-        <f t="shared" si="0"/>
+        <f>IF(K11="N",0,1)</f>
         <v>0</v>
       </c>
       <c r="K11" t="s">
@@ -804,10 +804,10 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>0.33</v>
+        <v>-1</v>
       </c>
       <c r="B12">
-        <v>0.75</v>
+        <v>0.53</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -816,7 +816,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -825,13 +825,13 @@
         <v>0.8</v>
       </c>
       <c r="H12">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>0.38</v>
+        <v>0.5</v>
       </c>
       <c r="J12">
-        <f t="shared" si="0"/>
+        <f>IF(K12="N",0,1)</f>
         <v>0</v>
       </c>
       <c r="K12" t="s">
@@ -867,7 +867,7 @@
         <v>0.44</v>
       </c>
       <c r="J13">
-        <f t="shared" si="0"/>
+        <f>IF(K13="N",0,1)</f>
         <v>0</v>
       </c>
       <c r="K13" t="s">
@@ -879,13 +879,13 @@
         <v>1</v>
       </c>
       <c r="B14">
-        <v>0.78</v>
+        <v>0.69</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -894,20 +894,20 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I14">
-        <v>0.13</v>
+        <v>0.25</v>
       </c>
       <c r="J14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>IF(K14="N",0,1)</f>
+        <v>1</v>
       </c>
       <c r="K14" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -915,31 +915,31 @@
         <v>1</v>
       </c>
       <c r="B15">
-        <v>0.57999999999999996</v>
+        <v>0.78</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.44</v>
+        <v>0.13</v>
       </c>
       <c r="J15">
-        <f t="shared" si="0"/>
+        <f>IF(K15="N",0,1)</f>
         <v>0</v>
       </c>
       <c r="K15" t="s">
@@ -951,13 +951,13 @@
         <v>1</v>
       </c>
       <c r="B16">
-        <v>0.64</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -972,10 +972,10 @@
         <v>-1</v>
       </c>
       <c r="I16">
-        <v>0.38</v>
+        <v>0.63</v>
       </c>
       <c r="J16">
-        <f t="shared" si="0"/>
+        <f>IF(K16="N",0,1)</f>
         <v>0</v>
       </c>
       <c r="K16" t="s">
@@ -984,34 +984,34 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>-0.33</v>
+        <v>1</v>
       </c>
       <c r="B17">
-        <v>0.67</v>
+        <v>0.64</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I17">
-        <v>0.5</v>
+        <v>0.63</v>
       </c>
       <c r="J17">
-        <f t="shared" si="0"/>
+        <f>IF(K17="N",0,1)</f>
         <v>0</v>
       </c>
       <c r="K17" t="s">
@@ -1023,13 +1023,13 @@
         <v>1</v>
       </c>
       <c r="B18">
-        <v>0.75</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1041,13 +1041,13 @@
         <v>1</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I18">
-        <v>0.25</v>
+        <v>0.19</v>
       </c>
       <c r="J18">
-        <f t="shared" si="0"/>
+        <f>IF(K18="N",0,1)</f>
         <v>0</v>
       </c>
       <c r="K18" t="s">
@@ -1056,10 +1056,10 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>-0.33</v>
+        <v>-1</v>
       </c>
       <c r="B19">
-        <v>0.57999999999999996</v>
+        <v>0.78</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -1068,22 +1068,22 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I19">
-        <v>0.19</v>
+        <v>0.38</v>
       </c>
       <c r="J19">
-        <f t="shared" si="0"/>
+        <f>IF(K19="N",0,1)</f>
         <v>0</v>
       </c>
       <c r="K19" t="s">
@@ -1092,10 +1092,10 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="B20">
-        <v>0.69</v>
+        <v>0.75</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -1107,10 +1107,10 @@
         <v>1</v>
       </c>
       <c r="F20">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H20">
         <v>-1</v>
@@ -1119,7 +1119,7 @@
         <v>0.44</v>
       </c>
       <c r="J20">
-        <f t="shared" si="0"/>
+        <f>IF(K20="N",0,1)</f>
         <v>1</v>
       </c>
       <c r="K20" t="s">
@@ -1131,10 +1131,10 @@
         <v>1</v>
       </c>
       <c r="B21">
-        <v>0.64</v>
+        <v>0.61</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1146,16 +1146,16 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H21">
         <v>-1</v>
       </c>
       <c r="I21">
-        <v>0.25</v>
+        <v>0.63</v>
       </c>
       <c r="J21">
-        <f t="shared" si="0"/>
+        <f>IF(K21="N",0,1)</f>
         <v>0</v>
       </c>
       <c r="K21" t="s">
@@ -1164,106 +1164,106 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B22">
-        <v>0.67</v>
+        <v>0.69</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I22">
-        <v>0.5</v>
+        <v>0.31</v>
       </c>
       <c r="J22">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>IF(K22="N",0,1)</f>
+        <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>-1</v>
+        <v>-0.33</v>
       </c>
       <c r="B23">
-        <v>0.53</v>
+        <v>0.94</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23">
         <v>0.31</v>
       </c>
       <c r="J23">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>IF(K23="N",0,1)</f>
+        <v>1</v>
       </c>
       <c r="K23" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>1</v>
+        <v>-0.33</v>
       </c>
       <c r="B24">
-        <v>0.56000000000000005</v>
+        <v>0.75</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H24">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>0.63</v>
+        <v>0.25</v>
       </c>
       <c r="J24">
-        <f t="shared" si="0"/>
+        <f>IF(K24="N",0,1)</f>
         <v>0</v>
       </c>
       <c r="K24" t="s">
@@ -1275,31 +1275,31 @@
         <v>1</v>
       </c>
       <c r="B25">
-        <v>0.75</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="J25">
-        <f t="shared" si="0"/>
+        <f>IF(K25="N",0,1)</f>
         <v>0</v>
       </c>
       <c r="K25" t="s">
@@ -1308,16 +1308,16 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>1</v>
+        <v>-0.33</v>
       </c>
       <c r="B26">
-        <v>0.67</v>
+        <v>0.72</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1326,25 +1326,25 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H26">
         <v>1</v>
       </c>
       <c r="I26">
-        <v>0.38</v>
+        <v>0.19</v>
       </c>
       <c r="J26">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>IF(K26="N",0,1)</f>
+        <v>0</v>
       </c>
       <c r="K26" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>-0.33</v>
+        <v>-1</v>
       </c>
       <c r="B27">
         <v>0.78</v>
@@ -1356,26 +1356,26 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27">
         <v>1</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I27">
-        <v>0.06</v>
+        <v>0.25</v>
       </c>
       <c r="J27">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>IF(K27="N",0,1)</f>
+        <v>0</v>
       </c>
       <c r="K27" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -1383,7 +1383,7 @@
         <v>-0.33</v>
       </c>
       <c r="B28">
-        <v>0.5</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -1392,7 +1392,7 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28">
         <v>-1</v>
@@ -1404,34 +1404,34 @@
         <v>0</v>
       </c>
       <c r="I28">
-        <v>0.88</v>
+        <v>0.19</v>
       </c>
       <c r="J28">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>IF(K28="N",0,1)</f>
+        <v>0</v>
       </c>
       <c r="K28" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>-1</v>
+        <v>-0.33</v>
       </c>
       <c r="B29">
-        <v>0.78</v>
+        <v>0.53</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -1440,10 +1440,10 @@
         <v>-1</v>
       </c>
       <c r="I29">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="J29">
-        <f t="shared" si="0"/>
+        <f>IF(K29="N",0,1)</f>
         <v>0</v>
       </c>
       <c r="K29" t="s">
@@ -1452,10 +1452,10 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>-1</v>
+        <v>-0.33</v>
       </c>
       <c r="B30">
-        <v>0.56000000000000005</v>
+        <v>0.81</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -1464,22 +1464,22 @@
         <v>1</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
       <c r="I30">
-        <v>0.5</v>
+        <v>0.38</v>
       </c>
       <c r="J30">
-        <f t="shared" si="0"/>
+        <f>IF(K30="N",0,1)</f>
         <v>0</v>
       </c>
       <c r="K30" t="s">
@@ -1488,10 +1488,10 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -1503,37 +1503,37 @@
         <v>1</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31">
         <v>0.6</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I31">
-        <v>0.25</v>
+        <v>0.38</v>
       </c>
       <c r="J31">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>IF(K31="N",0,1)</f>
+        <v>1</v>
       </c>
       <c r="K31" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B32">
-        <v>0.67</v>
+        <v>0.69</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -1542,16 +1542,16 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H32">
         <v>-1</v>
       </c>
       <c r="I32">
-        <v>0.25</v>
+        <v>0.19</v>
       </c>
       <c r="J32">
-        <f t="shared" si="0"/>
+        <f>IF(K32="N",0,1)</f>
         <v>0</v>
       </c>
       <c r="K32" t="s">
@@ -1563,31 +1563,31 @@
         <v>-0.33</v>
       </c>
       <c r="B33">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H33">
         <v>-1</v>
       </c>
       <c r="I33">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="J33">
-        <f t="shared" si="0"/>
+        <f>IF(K33="N",0,1)</f>
         <v>0</v>
       </c>
       <c r="K33" t="s">
@@ -1599,7 +1599,7 @@
         <v>-0.33</v>
       </c>
       <c r="B34">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -1608,22 +1608,22 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H34">
         <v>-1</v>
       </c>
       <c r="I34">
-        <v>0.19</v>
+        <v>0.5</v>
       </c>
       <c r="J34">
-        <f t="shared" si="0"/>
+        <f>IF(K34="N",0,1)</f>
         <v>0</v>
       </c>
       <c r="K34" t="s">
@@ -1632,7 +1632,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>-1</v>
+        <v>-0.33</v>
       </c>
       <c r="B35">
         <v>0.81</v>
@@ -1653,13 +1653,13 @@
         <v>0.8</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I35">
-        <v>0.19</v>
+        <v>0.38</v>
       </c>
       <c r="J35">
-        <f t="shared" si="0"/>
+        <f>IF(K35="N",0,1)</f>
         <v>0</v>
       </c>
       <c r="K35" t="s">
@@ -1671,13 +1671,13 @@
         <v>1</v>
       </c>
       <c r="B36">
-        <v>0.81</v>
+        <v>0.67</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1689,13 +1689,13 @@
         <v>1</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I36">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="J36">
-        <f t="shared" si="0"/>
+        <f>IF(K36="N",0,1)</f>
         <v>0</v>
       </c>
       <c r="K36" t="s">
@@ -1704,34 +1704,34 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>-0.33</v>
+        <v>-1</v>
       </c>
       <c r="B37">
-        <v>0.69</v>
+        <v>0.5</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H37">
         <v>-1</v>
       </c>
       <c r="I37">
-        <v>0.75</v>
+        <v>0.44</v>
       </c>
       <c r="J37">
-        <f t="shared" si="0"/>
+        <f>IF(K37="N",0,1)</f>
         <v>0</v>
       </c>
       <c r="K37" t="s">
@@ -1740,10 +1740,10 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>-1</v>
+        <v>-0.33</v>
       </c>
       <c r="B38">
-        <v>0.53</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -1755,10 +1755,10 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H38">
         <v>-1</v>
@@ -1767,7 +1767,7 @@
         <v>0.63</v>
       </c>
       <c r="J38">
-        <f t="shared" si="0"/>
+        <f>IF(K38="N",0,1)</f>
         <v>0</v>
       </c>
       <c r="K38" t="s">
@@ -1776,13 +1776,13 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>-0.33</v>
+        <v>-1</v>
       </c>
       <c r="B39">
-        <v>0.67</v>
+        <v>0.64</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -1791,19 +1791,19 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G39">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H39">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I39">
-        <v>0.44</v>
+        <v>0.25</v>
       </c>
       <c r="J39">
-        <f t="shared" si="0"/>
+        <f>IF(K39="N",0,1)</f>
         <v>0</v>
       </c>
       <c r="K39" t="s">
@@ -1812,10 +1812,10 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>-0.33</v>
+        <v>-1</v>
       </c>
       <c r="B40">
-        <v>0.92</v>
+        <v>0.72</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -1824,22 +1824,22 @@
         <v>1</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40">
         <v>1</v>
       </c>
       <c r="G40">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H40">
         <v>-1</v>
       </c>
       <c r="I40">
-        <v>0.63</v>
+        <v>0.19</v>
       </c>
       <c r="J40">
-        <f t="shared" si="0"/>
+        <f>IF(K40="N",0,1)</f>
         <v>0</v>
       </c>
       <c r="K40" t="s">
@@ -1851,7 +1851,7 @@
         <v>-1</v>
       </c>
       <c r="B41">
-        <v>0.64</v>
+        <v>0.53</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -1860,22 +1860,22 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I41">
-        <v>0.19</v>
+        <v>0.63</v>
       </c>
       <c r="J41">
-        <f t="shared" si="0"/>
+        <f>IF(K41="N",0,1)</f>
         <v>0</v>
       </c>
       <c r="K41" t="s">
@@ -1884,19 +1884,19 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>1</v>
+        <v>-0.33</v>
       </c>
       <c r="B42">
-        <v>0.57999999999999996</v>
+        <v>0.75</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -1908,10 +1908,10 @@
         <v>1</v>
       </c>
       <c r="I42">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="J42">
-        <f t="shared" si="0"/>
+        <f>IF(K42="N",0,1)</f>
         <v>0</v>
       </c>
       <c r="K42" t="s">
@@ -1920,7 +1920,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>-1</v>
+        <v>-0.33</v>
       </c>
       <c r="B43">
         <v>0.67</v>
@@ -1929,7 +1929,7 @@
         <v>1</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -1938,16 +1938,16 @@
         <v>0</v>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H43">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>0.31</v>
+        <v>0.5</v>
       </c>
       <c r="J43">
-        <f t="shared" si="0"/>
+        <f>IF(K43="N",0,1)</f>
         <v>0</v>
       </c>
       <c r="K43" t="s">
@@ -1956,10 +1956,10 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>-0.33</v>
+        <v>1</v>
       </c>
       <c r="B44">
-        <v>0.56000000000000005</v>
+        <v>0.69</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -1980,14 +1980,14 @@
         <v>-1</v>
       </c>
       <c r="I44">
-        <v>0.63</v>
+        <v>0.44</v>
       </c>
       <c r="J44">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>IF(K44="N",0,1)</f>
+        <v>1</v>
       </c>
       <c r="K44" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -1995,7 +1995,7 @@
         <v>-1</v>
       </c>
       <c r="B45">
-        <v>0.53</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -2007,19 +2007,19 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G45">
         <v>1</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I45">
         <v>0.44</v>
       </c>
       <c r="J45">
-        <f t="shared" si="0"/>
+        <f>IF(K45="N",0,1)</f>
         <v>0</v>
       </c>
       <c r="K45" t="s">
@@ -2031,7 +2031,7 @@
         <v>1</v>
       </c>
       <c r="B46">
-        <v>0.61</v>
+        <v>0.81</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -2052,10 +2052,10 @@
         <v>-1</v>
       </c>
       <c r="I46">
-        <v>0.25</v>
+        <v>0.38</v>
       </c>
       <c r="J46">
-        <f t="shared" si="0"/>
+        <f>IF(K46="N",0,1)</f>
         <v>0</v>
       </c>
       <c r="K46" t="s">
@@ -2064,10 +2064,10 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>-0.33</v>
+        <v>0.33</v>
       </c>
       <c r="B47">
-        <v>0.61</v>
+        <v>0.78</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -2076,7 +2076,7 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -2085,13 +2085,13 @@
         <v>1</v>
       </c>
       <c r="H47">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I47">
-        <v>0.63</v>
+        <v>0.06</v>
       </c>
       <c r="J47">
-        <f t="shared" si="0"/>
+        <f>IF(K47="N",0,1)</f>
         <v>0</v>
       </c>
       <c r="K47" t="s">
@@ -2127,7 +2127,7 @@
         <v>0.88</v>
       </c>
       <c r="J48">
-        <f t="shared" si="0"/>
+        <f>IF(K48="N",0,1)</f>
         <v>0</v>
       </c>
       <c r="K48" t="s">
@@ -2136,34 +2136,34 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B49">
         <v>0.67</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49">
         <v>0</v>
       </c>
       <c r="G49">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H49">
         <v>-1</v>
       </c>
       <c r="I49">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="J49">
-        <f t="shared" si="0"/>
+        <f>IF(K49="N",0,1)</f>
         <v>0</v>
       </c>
       <c r="K49" t="s">
@@ -2172,10 +2172,10 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>-0.33</v>
+        <v>-1</v>
       </c>
       <c r="B50">
-        <v>0.86</v>
+        <v>0.81</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -2190,16 +2190,16 @@
         <v>1</v>
       </c>
       <c r="G50">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H50">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I50">
-        <v>0.25</v>
+        <v>0.19</v>
       </c>
       <c r="J50">
-        <f t="shared" si="0"/>
+        <f>IF(K50="N",0,1)</f>
         <v>0</v>
       </c>
       <c r="K50" t="s">
@@ -2208,10 +2208,10 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>-1</v>
+        <v>-0.33</v>
       </c>
       <c r="B51">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -2220,10 +2220,10 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G51">
         <v>0.8</v>
@@ -2232,10 +2232,10 @@
         <v>-1</v>
       </c>
       <c r="I51">
-        <v>0.44</v>
+        <v>0.19</v>
       </c>
       <c r="J51">
-        <f t="shared" si="0"/>
+        <f>IF(K51="N",0,1)</f>
         <v>0</v>
       </c>
       <c r="K51" t="s">
@@ -2247,31 +2247,31 @@
         <v>-1</v>
       </c>
       <c r="B52">
-        <v>0.56000000000000005</v>
+        <v>0.53</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52">
         <v>0</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G52">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H52">
         <v>-1</v>
       </c>
       <c r="I52">
-        <v>0.44</v>
+        <v>0.38</v>
       </c>
       <c r="J52">
-        <f t="shared" si="0"/>
+        <f>IF(K52="N",0,1)</f>
         <v>0</v>
       </c>
       <c r="K52" t="s">
@@ -2280,34 +2280,34 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>-0.33</v>
+        <v>-1</v>
       </c>
       <c r="B53">
-        <v>0.53</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53">
         <v>0</v>
       </c>
       <c r="G53">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I53">
-        <v>0.75</v>
+        <v>0.63</v>
       </c>
       <c r="J53">
-        <f t="shared" si="0"/>
+        <f>IF(K53="N",0,1)</f>
         <v>0</v>
       </c>
       <c r="K53" t="s">
@@ -2316,34 +2316,34 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>-1</v>
+        <v>-0.33</v>
       </c>
       <c r="B54">
-        <v>0.56000000000000005</v>
+        <v>0.53</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54">
         <v>0</v>
       </c>
       <c r="G54">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H54">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I54">
-        <v>0.63</v>
+        <v>0.75</v>
       </c>
       <c r="J54">
-        <f t="shared" si="0"/>
+        <f>IF(K54="N",0,1)</f>
         <v>0</v>
       </c>
       <c r="K54" t="s">
@@ -2352,19 +2352,19 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>1</v>
+        <v>-0.33</v>
       </c>
       <c r="B55">
-        <v>0.69</v>
+        <v>0.67</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -2376,10 +2376,10 @@
         <v>-1</v>
       </c>
       <c r="I55">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="J55">
-        <f t="shared" si="0"/>
+        <f>IF(K55="N",0,1)</f>
         <v>1</v>
       </c>
       <c r="K55" t="s">
@@ -2388,7 +2388,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>-0.33</v>
+        <v>1</v>
       </c>
       <c r="B56">
         <v>0.75</v>
@@ -2397,10 +2397,10 @@
         <v>1</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -2409,13 +2409,13 @@
         <v>0.6</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56">
         <v>0.25</v>
       </c>
       <c r="J56">
-        <f t="shared" si="0"/>
+        <f>IF(K56="N",0,1)</f>
         <v>0</v>
       </c>
       <c r="K56" t="s">
@@ -2424,10 +2424,10 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B57">
-        <v>0.53</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -2439,19 +2439,19 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G57">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H57">
         <v>-1</v>
       </c>
       <c r="I57">
-        <v>0.31</v>
+        <v>0.44</v>
       </c>
       <c r="J57">
-        <f t="shared" si="0"/>
+        <f>IF(K57="N",0,1)</f>
         <v>0</v>
       </c>
       <c r="K57" t="s">
@@ -2463,31 +2463,31 @@
         <v>-0.33</v>
       </c>
       <c r="B58">
-        <v>0.5</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58">
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G58">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58">
-        <v>0.31</v>
+        <v>0.63</v>
       </c>
       <c r="J58">
-        <f t="shared" si="0"/>
+        <f>IF(K58="N",0,1)</f>
         <v>0</v>
       </c>
       <c r="K58" t="s">
@@ -2496,7 +2496,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>-1</v>
+        <v>-0.33</v>
       </c>
       <c r="B59">
         <v>0.53</v>
@@ -2511,19 +2511,19 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G59">
         <v>0.8</v>
       </c>
       <c r="H59">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I59">
-        <v>0.38</v>
+        <v>0.5</v>
       </c>
       <c r="J59">
-        <f t="shared" si="0"/>
+        <f>IF(K59="N",0,1)</f>
         <v>0</v>
       </c>
       <c r="K59" t="s">
@@ -2532,10 +2532,10 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>0.33</v>
+        <v>-1</v>
       </c>
       <c r="B60">
-        <v>0.78</v>
+        <v>0.53</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -2547,19 +2547,19 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G60">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I60">
-        <v>0.06</v>
+        <v>0.31</v>
       </c>
       <c r="J60">
-        <f t="shared" si="0"/>
+        <f>IF(K60="N",0,1)</f>
         <v>0</v>
       </c>
       <c r="K60" t="s">
@@ -2571,7 +2571,7 @@
         <v>-0.33</v>
       </c>
       <c r="B61">
-        <v>0.75</v>
+        <v>0.64</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -2586,16 +2586,16 @@
         <v>0</v>
       </c>
       <c r="G61">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H61">
         <v>-1</v>
       </c>
       <c r="I61">
-        <v>0.19</v>
+        <v>0.31</v>
       </c>
       <c r="J61">
-        <f t="shared" si="0"/>
+        <f>IF(K61="N",0,1)</f>
         <v>0</v>
       </c>
       <c r="K61" t="s">
@@ -2613,29 +2613,29 @@
         <v>1</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62">
         <v>0</v>
       </c>
       <c r="G62">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H62">
         <v>-1</v>
       </c>
       <c r="I62">
-        <v>0.38</v>
+        <v>0.25</v>
       </c>
       <c r="J62">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>IF(K62="N",0,1)</f>
+        <v>0</v>
       </c>
       <c r="K62" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -2643,7 +2643,7 @@
         <v>-1</v>
       </c>
       <c r="B63">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -2664,10 +2664,10 @@
         <v>0</v>
       </c>
       <c r="I63">
-        <v>0.56000000000000005</v>
+        <v>0.25</v>
       </c>
       <c r="J63">
-        <f t="shared" si="0"/>
+        <f>IF(K63="N",0,1)</f>
         <v>0</v>
       </c>
       <c r="K63" t="s">
@@ -2676,16 +2676,16 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B64">
-        <v>0.64</v>
+        <v>0.78</v>
       </c>
       <c r="C64">
         <v>1</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -2694,52 +2694,52 @@
         <v>1</v>
       </c>
       <c r="G64">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I64">
-        <v>0.25</v>
+        <v>0.38</v>
       </c>
       <c r="J64">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>IF(K64="N",0,1)</f>
+        <v>1</v>
       </c>
       <c r="K64" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B65">
-        <v>0.56000000000000005</v>
+        <v>0.75</v>
       </c>
       <c r="C65">
         <v>1</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G65">
         <v>1</v>
       </c>
       <c r="H65">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I65">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="J65">
-        <f t="shared" si="0"/>
+        <f>IF(K65="N",0,1)</f>
         <v>0</v>
       </c>
       <c r="K65" t="s">
@@ -2751,7 +2751,7 @@
         <v>-0.33</v>
       </c>
       <c r="B66">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -2763,19 +2763,19 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G66">
         <v>0.8</v>
       </c>
       <c r="H66">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I66">
-        <v>0.5</v>
+        <v>0.88</v>
       </c>
       <c r="J66">
-        <f t="shared" ref="J66:K100" si="1">IF(K66="N",0,1)</f>
+        <f>IF(K66="N",0,1)</f>
         <v>1</v>
       </c>
       <c r="K66" t="s">
@@ -2784,7 +2784,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>-0.33</v>
+        <v>-1</v>
       </c>
       <c r="B67">
         <v>0.53</v>
@@ -2805,13 +2805,13 @@
         <v>1</v>
       </c>
       <c r="H67">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I67">
-        <v>0.75</v>
+        <v>0.31</v>
       </c>
       <c r="J67">
-        <f t="shared" si="1"/>
+        <f>IF(K67="N",0,1)</f>
         <v>0</v>
       </c>
       <c r="K67" t="s">
@@ -2820,34 +2820,34 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="B68">
-        <v>0.69</v>
+        <v>0.64</v>
       </c>
       <c r="C68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G68">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H68">
         <v>-1</v>
       </c>
       <c r="I68">
-        <v>0.31</v>
+        <v>0.25</v>
       </c>
       <c r="J68">
-        <f t="shared" si="1"/>
+        <f>IF(K68="N",0,1)</f>
         <v>0</v>
       </c>
       <c r="K68" t="s">
@@ -2856,10 +2856,10 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>0.33</v>
+        <v>-1</v>
       </c>
       <c r="B69">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -2871,55 +2871,55 @@
         <v>1</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H69">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I69">
-        <v>0.44</v>
+        <v>0.25</v>
       </c>
       <c r="J69">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>IF(K69="N",0,1)</f>
+        <v>0</v>
       </c>
       <c r="K69" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>-0.33</v>
+        <v>1</v>
       </c>
       <c r="B70">
-        <v>0.53</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="C70">
         <v>1</v>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70">
         <v>0</v>
       </c>
       <c r="G70">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I70">
-        <v>0.5</v>
+        <v>0.63</v>
       </c>
       <c r="J70">
-        <f t="shared" si="1"/>
+        <f>IF(K70="N",0,1)</f>
         <v>0</v>
       </c>
       <c r="K70" t="s">
@@ -2931,7 +2931,7 @@
         <v>-0.33</v>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -2940,7 +2940,7 @@
         <v>1</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -2949,13 +2949,13 @@
         <v>0.6</v>
       </c>
       <c r="H71">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I71">
-        <v>0.38</v>
+        <v>0.31</v>
       </c>
       <c r="J71">
-        <f t="shared" si="1"/>
+        <f>IF(K71="N",0,1)</f>
         <v>0</v>
       </c>
       <c r="K71" t="s">
@@ -2967,43 +2967,43 @@
         <v>-1</v>
       </c>
       <c r="B72">
-        <v>0.67</v>
+        <v>0.53</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D72">
         <v>0</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G72">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H72">
         <v>0</v>
       </c>
       <c r="I72">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="J72">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>IF(K72="N",0,1)</f>
+        <v>0</v>
       </c>
       <c r="K72" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>-1</v>
+        <v>-0.33</v>
       </c>
       <c r="B73">
-        <v>0.72</v>
+        <v>0.75</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -3015,10 +3015,10 @@
         <v>1</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G73">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H73">
         <v>-1</v>
@@ -3027,7 +3027,7 @@
         <v>0.19</v>
       </c>
       <c r="J73">
-        <f t="shared" si="1"/>
+        <f>IF(K73="N",0,1)</f>
         <v>0</v>
       </c>
       <c r="K73" t="s">
@@ -3045,25 +3045,25 @@
         <v>1</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E74">
         <v>0</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G74">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H74">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I74">
-        <v>0.25</v>
+        <v>0.31</v>
       </c>
       <c r="J74">
-        <f t="shared" si="1"/>
+        <f>IF(K74="N",0,1)</f>
         <v>0</v>
       </c>
       <c r="K74" t="s">
@@ -3075,13 +3075,13 @@
         <v>-0.33</v>
       </c>
       <c r="B75">
-        <v>0.83</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="C75">
         <v>1</v>
       </c>
       <c r="D75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -3090,16 +3090,16 @@
         <v>0</v>
       </c>
       <c r="G75">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H75">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I75">
-        <v>0.31</v>
+        <v>0.19</v>
       </c>
       <c r="J75">
-        <f t="shared" si="1"/>
+        <f>IF(K75="N",0,1)</f>
         <v>0</v>
       </c>
       <c r="K75" t="s">
@@ -3108,52 +3108,52 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>-0.33</v>
+        <v>1</v>
       </c>
       <c r="B76">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="C76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E76">
         <v>1</v>
       </c>
       <c r="F76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G76">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="J76">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>IF(K76="N",0,1)</f>
+        <v>1</v>
       </c>
       <c r="K76" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B77">
-        <v>0.81</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="C77">
         <v>1</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -3162,16 +3162,16 @@
         <v>0</v>
       </c>
       <c r="G77">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H77">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I77">
-        <v>0.38</v>
+        <v>0.5</v>
       </c>
       <c r="J77">
-        <f t="shared" si="1"/>
+        <f>IF(K77="N",0,1)</f>
         <v>0</v>
       </c>
       <c r="K77" t="s">
@@ -3180,10 +3180,10 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>1</v>
+        <v>-0.33</v>
       </c>
       <c r="B78">
-        <v>0.94</v>
+        <v>0.5</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -3192,22 +3192,22 @@
         <v>1</v>
       </c>
       <c r="E78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G78">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="H78">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I78">
-        <v>0.25</v>
+        <v>0.88</v>
       </c>
       <c r="J78">
-        <f t="shared" si="1"/>
+        <f>IF(K78="N",0,1)</f>
         <v>0</v>
       </c>
       <c r="K78" t="s">
@@ -3216,19 +3216,19 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>1</v>
+        <v>-0.33</v>
       </c>
       <c r="B79">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -3240,10 +3240,10 @@
         <v>-1</v>
       </c>
       <c r="I79">
-        <v>0.63</v>
+        <v>0.31</v>
       </c>
       <c r="J79">
-        <f t="shared" si="1"/>
+        <f>IF(K79="N",0,1)</f>
         <v>0</v>
       </c>
       <c r="K79" t="s">
@@ -3255,19 +3255,19 @@
         <v>-0.33</v>
       </c>
       <c r="B80">
-        <v>0.5</v>
+        <v>0.69</v>
       </c>
       <c r="C80">
         <v>1</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -3276,10 +3276,10 @@
         <v>-1</v>
       </c>
       <c r="I80">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="J80">
-        <f t="shared" si="1"/>
+        <f>IF(K80="N",0,1)</f>
         <v>0</v>
       </c>
       <c r="K80" t="s">
@@ -3288,10 +3288,10 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B81">
-        <v>0.61</v>
+        <v>0.75</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -3303,19 +3303,19 @@
         <v>1</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G81">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H81">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I81">
-        <v>0.63</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="J81">
-        <f t="shared" si="1"/>
+        <f>IF(K81="N",0,1)</f>
         <v>0</v>
       </c>
       <c r="K81" t="s">
@@ -3324,10 +3324,10 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>-0.33</v>
+        <v>1</v>
       </c>
       <c r="B82">
-        <v>0.94</v>
+        <v>0.61</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -3336,26 +3336,26 @@
         <v>0</v>
       </c>
       <c r="E82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82">
         <v>0</v>
       </c>
       <c r="G82">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I82">
-        <v>0.31</v>
+        <v>0.25</v>
       </c>
       <c r="J82">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>IF(K82="N",0,1)</f>
+        <v>0</v>
       </c>
       <c r="K82" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -3363,7 +3363,7 @@
         <v>-1</v>
       </c>
       <c r="B83">
-        <v>0.61</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -3375,19 +3375,19 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G83">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I83">
         <v>0.5</v>
       </c>
       <c r="J83">
-        <f t="shared" si="1"/>
+        <f>IF(K83="N",0,1)</f>
         <v>0</v>
       </c>
       <c r="K83" t="s">
@@ -3396,10 +3396,10 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>-0.33</v>
+        <v>-1</v>
       </c>
       <c r="B84">
-        <v>0.5</v>
+        <v>0.64</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -3411,19 +3411,19 @@
         <v>1</v>
       </c>
       <c r="F84">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G84">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H84">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I84">
-        <v>0.5</v>
+        <v>0.19</v>
       </c>
       <c r="J84">
-        <f t="shared" si="1"/>
+        <f>IF(K84="N",0,1)</f>
         <v>0</v>
       </c>
       <c r="K84" t="s">
@@ -3432,10 +3432,10 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B85">
-        <v>0.61</v>
+        <v>0.94</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -3450,16 +3450,16 @@
         <v>0</v>
       </c>
       <c r="G85">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="H85">
         <v>-1</v>
       </c>
       <c r="I85">
-        <v>0.38</v>
+        <v>0.25</v>
       </c>
       <c r="J85">
-        <f t="shared" si="1"/>
+        <f>IF(K85="N",0,1)</f>
         <v>0</v>
       </c>
       <c r="K85" t="s">
@@ -3471,7 +3471,7 @@
         <v>-1</v>
       </c>
       <c r="B86">
-        <v>0.78</v>
+        <v>0.61</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -3480,10 +3480,10 @@
         <v>1</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G86">
         <v>0.6</v>
@@ -3495,7 +3495,7 @@
         <v>0.38</v>
       </c>
       <c r="J86">
-        <f t="shared" si="1"/>
+        <f>IF(K86="N",0,1)</f>
         <v>0</v>
       </c>
       <c r="K86" t="s">
@@ -3504,10 +3504,10 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>1</v>
+        <v>-0.33</v>
       </c>
       <c r="B87">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -3516,22 +3516,22 @@
         <v>1</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F87">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G87">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I87">
-        <v>0.31</v>
+        <v>0.38</v>
       </c>
       <c r="J87">
-        <f t="shared" si="1"/>
+        <f>IF(K87="N",0,1)</f>
         <v>0</v>
       </c>
       <c r="K87" t="s">
@@ -3555,19 +3555,19 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G88">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H88">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I88">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="J88">
-        <f t="shared" si="1"/>
+        <f>IF(K88="N",0,1)</f>
         <v>0</v>
       </c>
       <c r="K88" t="s">
@@ -3576,25 +3576,25 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>-0.33</v>
+        <v>0.33</v>
       </c>
       <c r="B89">
-        <v>0.64</v>
+        <v>0.69</v>
       </c>
       <c r="C89">
         <v>1</v>
       </c>
       <c r="D89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G89">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H89">
         <v>-1</v>
@@ -3603,7 +3603,7 @@
         <v>0.31</v>
       </c>
       <c r="J89">
-        <f t="shared" si="1"/>
+        <f>IF(K89="N",0,1)</f>
         <v>0</v>
       </c>
       <c r="K89" t="s">
@@ -3612,10 +3612,10 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>-1</v>
+        <v>0.33</v>
       </c>
       <c r="B90">
-        <v>0.53</v>
+        <v>0.75</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -3624,7 +3624,7 @@
         <v>1</v>
       </c>
       <c r="E90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -3633,13 +3633,13 @@
         <v>0.8</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I90">
-        <v>0.5</v>
+        <v>0.38</v>
       </c>
       <c r="J90">
-        <f t="shared" si="1"/>
+        <f>IF(K90="N",0,1)</f>
         <v>0</v>
       </c>
       <c r="K90" t="s">
@@ -3651,31 +3651,31 @@
         <v>-0.33</v>
       </c>
       <c r="B91">
-        <v>0.81</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E91">
         <v>1</v>
       </c>
       <c r="F91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G91">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H91">
         <v>-1</v>
       </c>
       <c r="I91">
-        <v>0.38</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="J91">
-        <f t="shared" si="1"/>
+        <f>IF(K91="N",0,1)</f>
         <v>0</v>
       </c>
       <c r="K91" t="s">
@@ -3687,10 +3687,10 @@
         <v>1</v>
       </c>
       <c r="B92">
-        <v>0.75</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="C92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -3699,19 +3699,19 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G92">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92">
-        <v>0.25</v>
+        <v>0.44</v>
       </c>
       <c r="J92">
-        <f t="shared" si="1"/>
+        <f>IF(K92="N",0,1)</f>
         <v>0</v>
       </c>
       <c r="K92" t="s">
@@ -3720,10 +3720,10 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>-1</v>
+        <v>-0.33</v>
       </c>
       <c r="B93">
-        <v>0.78</v>
+        <v>0.61</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -3735,19 +3735,19 @@
         <v>1</v>
       </c>
       <c r="F93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G93">
         <v>1</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I93">
-        <v>0.25</v>
+        <v>0.63</v>
       </c>
       <c r="J93">
-        <f t="shared" si="1"/>
+        <f>IF(K93="N",0,1)</f>
         <v>0</v>
       </c>
       <c r="K93" t="s">
@@ -3759,7 +3759,7 @@
         <v>-1</v>
       </c>
       <c r="B94">
-        <v>0.69</v>
+        <v>0.67</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -3780,10 +3780,10 @@
         <v>-1</v>
       </c>
       <c r="I94">
-        <v>0.31</v>
+        <v>0.5</v>
       </c>
       <c r="J94">
-        <f t="shared" si="1"/>
+        <f>IF(K94="N",0,1)</f>
         <v>0</v>
       </c>
       <c r="K94" t="s">
@@ -3792,10 +3792,10 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>-0.33</v>
+        <v>1</v>
       </c>
       <c r="B95">
-        <v>0.5</v>
+        <v>0.64</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -3804,10 +3804,10 @@
         <v>0</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -3816,10 +3816,10 @@
         <v>-1</v>
       </c>
       <c r="I95">
-        <v>0.47</v>
+        <v>0.38</v>
       </c>
       <c r="J95">
-        <f t="shared" si="1"/>
+        <f>IF(K95="N",0,1)</f>
         <v>0</v>
       </c>
       <c r="K95" t="s">
@@ -3828,34 +3828,34 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>-0.33</v>
+        <v>1</v>
       </c>
       <c r="B96">
-        <v>0.92</v>
+        <v>0.75</v>
       </c>
       <c r="C96">
         <v>1</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G96">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H96">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I96">
-        <v>0.19</v>
+        <v>0.25</v>
       </c>
       <c r="J96">
-        <f t="shared" si="1"/>
+        <f>IF(K96="N",0,1)</f>
         <v>0</v>
       </c>
       <c r="K96" t="s">
@@ -3864,16 +3864,16 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>1</v>
+        <v>-0.33</v>
       </c>
       <c r="B97">
-        <v>0.57999999999999996</v>
+        <v>0.75</v>
       </c>
       <c r="C97">
         <v>0</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E97">
         <v>1</v>
@@ -3888,10 +3888,10 @@
         <v>-1</v>
       </c>
       <c r="I97">
-        <v>0.19</v>
+        <v>0.38</v>
       </c>
       <c r="J97">
-        <f t="shared" si="1"/>
+        <f>IF(K97="N",0,1)</f>
         <v>0</v>
       </c>
       <c r="K97" t="s">
@@ -3903,19 +3903,19 @@
         <v>-0.33</v>
       </c>
       <c r="B98">
-        <v>0.56000000000000005</v>
+        <v>0.92</v>
       </c>
       <c r="C98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G98">
         <v>1</v>
@@ -3924,10 +3924,10 @@
         <v>-1</v>
       </c>
       <c r="I98">
-        <v>0.56000000000000005</v>
+        <v>0.63</v>
       </c>
       <c r="J98">
-        <f t="shared" si="1"/>
+        <f>IF(K98="N",0,1)</f>
         <v>0</v>
       </c>
       <c r="K98" t="s">
@@ -3936,34 +3936,34 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>-0.33</v>
+        <v>1</v>
       </c>
       <c r="B99">
         <v>0.56000000000000005</v>
       </c>
       <c r="C99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E99">
         <v>0</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G99">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99">
-        <v>0.63</v>
+        <v>1</v>
       </c>
       <c r="J99">
-        <f t="shared" si="1"/>
+        <f>IF(K99="N",0,1)</f>
         <v>0</v>
       </c>
       <c r="K99" t="s">
@@ -3975,7 +3975,7 @@
         <v>-0.33</v>
       </c>
       <c r="B100">
-        <v>0.57999999999999996</v>
+        <v>0.5</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -3984,22 +3984,22 @@
         <v>0</v>
       </c>
       <c r="E100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G100">
         <v>0.8</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100">
-        <v>0.19</v>
+        <v>0.31</v>
       </c>
       <c r="J100">
-        <f t="shared" si="1"/>
+        <f>IF(K100="N",0,1)</f>
         <v>0</v>
       </c>
       <c r="K100" t="s">
@@ -4007,8 +4007,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:L100">
-    <sortCondition ref="L1:L100"/>
+  <sortState ref="A1:M117">
+    <sortCondition descending="1" ref="M1:M117"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
